--- a/Projects Management System Naseej/wwwroot/wwwroot/Files/84bf0646-5671-4fb2-8d36-8d074850513e.xlsx
+++ b/Projects Management System Naseej/wwwroot/wwwroot/Files/84bf0646-5671-4fb2-8d36-8d074850513e.xlsx
@@ -414,12 +414,12 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>GSMA / UK</v>
+        <v>GSMA / UKhow are you ?</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>WE RISE</v>
+        <v>good ?</v>
       </c>
     </row>
   </sheetData>

--- a/Projects Management System Naseej/wwwroot/wwwroot/Files/84bf0646-5671-4fb2-8d36-8d074850513e.xlsx
+++ b/Projects Management System Naseej/wwwroot/wwwroot/Files/84bf0646-5671-4fb2-8d36-8d074850513e.xlsx
@@ -397,34 +397,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="1"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>wedwd</v>
+      </c>
+      <c r="C1" t="str">
         <v>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="C2" t="str">
         <v>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>GSMA / UKhow are you ?</v>
+      <c r="C3" t="str">
+        <v>kjfkervkr</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="C4" t="str">
         <v>good ?</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>